--- a/data/income_statement/2digits/total/50_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/50_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>50-Water transport</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>50-Water transport</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,56 +841,66 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>5275913.147369999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6360570.351119999</v>
+        <v>6360570.35112</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>7840863.173700001</v>
+        <v>7840863.1737</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8333467.671940001</v>
+        <v>8353910.128939999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8485077.664619999</v>
+        <v>8510377.164369998</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10008793.39985</v>
+        <v>10019856.4502</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10592930.82809</v>
+        <v>10679713.67151</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>10968969.82386</v>
+        <v>10971001.0549</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>14255395.0208</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21038103.99351</v>
+        <v>21049573.23223</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>24248544.97633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24297957.34307</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>29214801.32</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2461622.127919999</v>
+        <v>2461622.12792</v>
       </c>
       <c r="D6" s="48" t="n">
         <v>2921521.54837</v>
@@ -1001,31 +912,36 @@
         <v>4157462.07615</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>4379388.29763</v>
+        <v>4379693.20258</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>5118325.60998</v>
+        <v>5119783.60786</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>5684468.18891</v>
+        <v>5692443.81967</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6092343.01226</v>
+        <v>6093690.32849</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>7897796.68733</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10933986.84237</v>
+        <v>10935258.32645</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>13125275.98118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>13131476.39579</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>15123390.634</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2762292.02952</v>
@@ -1037,34 +953,39 @@
         <v>3954751.48751</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4081608.33082</v>
+        <v>4100555.57507</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3972014.87753</v>
+        <v>3994470.38059</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4742243.493</v>
+        <v>4751776.29175</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>4748379.516100001</v>
+        <v>4826783.65335</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>4705474.81979</v>
+        <v>4706157.2227</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>6111418.385280001</v>
+        <v>6111418.38528</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>9831978.978420001</v>
+        <v>9842082.9101</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>10764943.40062</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10803398.71735</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>13638005.138</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>51998.98993</v>
@@ -1076,46 +997,51 @@
         <v>297183.11676</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>94397.26497</v>
+        <v>95892.47772</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>133674.48946</v>
+        <v>136213.5812</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>148224.29687</v>
+        <v>148296.55059</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>160083.12308</v>
+        <v>160486.19849</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>171151.99181</v>
+        <v>171153.50371</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>246179.94819</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>272138.17272</v>
+        <v>272231.99568</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>358325.5945299999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>363082.22993</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>453405.548</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>62601.84243</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>79481.62165</v>
+        <v>79481.62164999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>110743.58166</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>66323.76594</v>
+        <v>66323.76594000001</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>60037.48565</v>
@@ -1124,7 +1050,7 @@
         <v>109912.32002</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>197147.85335</v>
+        <v>197341.33179</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>222018.49029</v>
@@ -1133,16 +1059,21 @@
         <v>292532.0661</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>540587.73496</v>
+        <v>540610.64403</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>702450.8019</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>702554.8335599999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>895028.6580000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>43214.93125</v>
@@ -1163,7 +1094,7 @@
         <v>75105.83053000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>136796.41518</v>
+        <v>136971.42936</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>143779.61979</v>
@@ -1172,16 +1103,21 @@
         <v>224904.59208</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>421783.4391</v>
+        <v>421806.21803</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>505801.41017</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>505883.75928</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>613410.659</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>16268.9376</v>
@@ -1196,7 +1132,7 @@
         <v>8117.207649999999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>9737.38848</v>
+        <v>9737.388479999998</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>27832.15852</v>
@@ -1211,28 +1147,33 @@
         <v>66872.53323</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>118008.97826</v>
+        <v>118009.1084</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>195318.76581</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>280518.632</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>3117.973579999999</v>
+        <v>3117.97358</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7420.16871</v>
+        <v>7420.168710000001</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>7518.12662</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>4730.681699999999</v>
+        <v>4730.6817</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>5530.03975</v>
@@ -1241,7 +1182,7 @@
         <v>6974.33097</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5112.613429999999</v>
+        <v>5131.07769</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>4109.64968</v>
@@ -1250,94 +1191,109 @@
         <v>754.94079</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>795.3176000000001</v>
+        <v>795.3176</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1330.62592</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1352.30847</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1099.367</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>5213311.304939999</v>
+        <v>5213311.30494</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>6281088.72947</v>
+        <v>6281088.729470001</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>7730119.59204</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8267143.905999999</v>
+        <v>8287586.363</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8425040.17897</v>
+        <v>8450339.678720001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>9898881.079830002</v>
+        <v>9909944.130179999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10395782.97474</v>
+        <v>10482372.33972</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>10746951.33357</v>
+        <v>10748982.56461</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>13962862.9547</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>20497516.25855</v>
+        <v>20508962.5882</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>23546094.17443</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>23595402.50951</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>28319772.662</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>4607329.33447</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>5378612.38817</v>
+        <v>5378612.388169999</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>6687081.7378</v>
+        <v>6687081.737799999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7216625.618450001</v>
+        <v>7233932.362529999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7365466.599389999</v>
+        <v>7381587.05437</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8389950.545780001</v>
+        <v>8398120.413870001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8483334.050439999</v>
+        <v>8563826.94906</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>8955695.038859999</v>
+        <v>8956926.42757</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>11732874.96475</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>17132379.18278</v>
+        <v>17143024.0609</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>19820427.32092</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>19859718.79999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>23613281.929</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>137546.42207</v>
@@ -1352,16 +1308,16 @@
         <v>40357.05146</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>57278.88261000001</v>
+        <v>57278.88260999999</v>
       </c>
       <c r="H15" s="48" t="n">
         <v>14788.98584</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>61593.62574999999</v>
+        <v>61594.35551</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1457003.31453</v>
+        <v>1457455.52038</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>53494.29487000001</v>
@@ -1370,13 +1326,18 @@
         <v>18800.76659</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>45554.89214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>45577.53789</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>110641.377</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>174013.8463</v>
@@ -1388,73 +1349,83 @@
         <v>234664.61619</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>194641.52996</v>
+        <v>194641.96871</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>174510.63267</v>
+        <v>174521.33856</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>624874.4983199999</v>
+        <v>624876.90527</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>542580.0469900001</v>
+        <v>542679.1949900001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>255382.85598</v>
+        <v>255397.3161</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>361092.73135</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>724553.4739799999</v>
+        <v>724869.6810600001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>3725306.51424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>3726479.5513</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1296194.205</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>4266965.99715</v>
+        <v>4266965.997149999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>5053294.75469</v>
+        <v>5053294.754690001</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>6242167.52846</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6907436.735239999</v>
+        <v>6924743.040569998</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7046375.311100001</v>
+        <v>7062485.06019</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>7684250.232160001</v>
+        <v>7692417.6933</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>7790547.685459999</v>
+        <v>7870940.70632</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7179355.432409999</v>
+        <v>7180120.15515</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>11245014.78747</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>16286131.63611</v>
+        <v>16296460.30715</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15931625.18115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>15969720.97741</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>22059849.261</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>28803.06895</v>
@@ -1469,13 +1440,13 @@
         <v>74190.30179000001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>87301.77300999999</v>
+        <v>87301.77301</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>66036.82946000001</v>
+        <v>66036.82945999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>88612.69223999997</v>
+        <v>88612.69224</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>63953.43594</v>
@@ -1489,89 +1460,104 @@
       <c r="M18" s="48" t="n">
         <v>117940.73339</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>146597.086</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>605981.9704700001</v>
+        <v>605981.9704699999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>902476.3413000002</v>
+        <v>902476.3413000001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1043037.85424</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1050518.28755</v>
+        <v>1053654.00047</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1059573.57958</v>
+        <v>1068752.62435</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1508930.53405</v>
+        <v>1511823.71631</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1912448.9243</v>
+        <v>1918545.39066</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1791256.29471</v>
+        <v>1792056.13704</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2229987.98995</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3365137.07577</v>
+        <v>3365938.5273</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>3725666.85351</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>3735683.70952</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4706490.733</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>559345.0736900001</v>
+        <v>559345.07369</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>576305.4432000001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>640240.2536499999</v>
+        <v>640240.25365</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>673870.1313600001</v>
+        <v>698877.985</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>719807.2475000001</v>
+        <v>745730.6031700001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>789143.3053199999</v>
+        <v>789920.19114</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>850500.7667299999</v>
+        <v>882096.4160699999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>942178.22474</v>
+        <v>944977.2713199999</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1050544.87469</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1326231.86028</v>
+        <v>1327991.13328</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1450465.66381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1466623.54017</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1724981.921</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>1389.13967</v>
@@ -1606,11 +1592,16 @@
       <c r="M21" s="48" t="n">
         <v>331.13577</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>16864.24</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>103962.46499</v>
@@ -1622,73 +1613,83 @@
         <v>67224.23122</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>96074.88012</v>
+        <v>112186.87293</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>88483.16082</v>
+        <v>104732.43216</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>89334.24422999998</v>
+        <v>89391.86592</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>72184.1257</v>
+        <v>88921.67049999999</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>98248.88296</v>
+        <v>98250.67762999999</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>99006.45127000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>113443.28522</v>
+        <v>113912.49901</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>123164.38627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>125574.5287</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>128681.253</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>453993.46903</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>470319.4303599999</v>
+        <v>470319.43036</v>
       </c>
       <c r="E23" s="48" t="n">
         <v>572509.5513099999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>577734.0729100001</v>
+        <v>586629.93374</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>631272.9560799999</v>
+        <v>640947.0404100001</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>699187.1130399999</v>
+        <v>699906.37717</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>777098.1120900001</v>
+        <v>791956.21663</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>843835.62584</v>
+        <v>846632.8777500001</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>951505.3658799999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1212787.91156</v>
+        <v>1214077.97077</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1326970.14177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1340717.8757</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1579436.428</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>46636.89678</v>
@@ -1700,73 +1701,83 @@
         <v>402797.60059</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>376648.1561900001</v>
+        <v>354776.01547</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>339766.33208</v>
+        <v>323022.02118</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>719787.2287299999</v>
+        <v>721903.5251699999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1061948.15757</v>
+        <v>1036448.97459</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>849078.06997</v>
+        <v>847078.86572</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1179443.11526</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2038905.21549</v>
+        <v>2037947.39402</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2275201.1897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2269060.169350001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2981508.812</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>1268925.37836</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>972347.7760800001</v>
+        <v>972347.77608</v>
       </c>
       <c r="E25" s="47" t="n">
         <v>1047347.29047</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1648805.44305</v>
+        <v>1687138.42535</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1169766.2404</v>
+        <v>1184008.53368</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1793318.55124</v>
+        <v>1795651.41156</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1810347.32835</v>
+        <v>1851725.41118</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1922619.41425</v>
+        <v>1933812.92924</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>2915786.95769</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>8801085.863030002</v>
+        <v>8801677.86576</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7049662.99311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7056904.53416</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>8613444.130999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>16387.16124</v>
@@ -1790,22 +1801,27 @@
         <v>60905.45631</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>109873.32611</v>
+        <v>120439.9829</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>157004.1702</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>99719.16540000001</v>
+        <v>99719.1654</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>85752.29026000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>85752.29025999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>116000.305</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>163443.11199</v>
@@ -1829,7 +1845,7 @@
         <v>63873.76372</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>62346.83433</v>
+        <v>62346.83432999999</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>246225.65871</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>467370.1125</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>241956.209</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>75514.19979</v>
@@ -1856,34 +1877,39 @@
         <v>57763.70008</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>75053.01402</v>
+        <v>75271.78057</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>84883.09192000001</v>
+        <v>84974.47133999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>95878.35921</v>
+        <v>96237.8772</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>106027.50618</v>
+        <v>106783.83895</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>123769.57076</v>
+        <v>123792.33113</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>159745.69175</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>227492.318</v>
+        <v>227512.13009</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>208241.16365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>210181.31596</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>181796.05</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>6151.44525</v>
@@ -1901,13 +1927,13 @@
         <v>3528.06415</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5910.667659999999</v>
+        <v>5933.53436</v>
       </c>
       <c r="I29" s="48" t="n">
         <v>6091.1498</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>5494.304169999999</v>
+        <v>5494.54297</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>24922.16705</v>
@@ -1916,16 +1942,21 @@
         <v>16657.34401</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>27138.90342999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>27138.90343</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>32475.038</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4447.876190000001</v>
+        <v>4447.876189999999</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>1175.40875</v>
@@ -1955,13 +1986,18 @@
         <v>7414.334409999999</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>6787.68259</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>6787.682589999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>8388.819</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>7168.19551</v>
@@ -1973,7 +2009,7 @@
         <v>3701.36574</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>274771.45117</v>
+        <v>274771.47407</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>1823.90872</v>
@@ -1982,10 +2018,10 @@
         <v>14575.54238</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3533.68779</v>
+        <v>7053.301619999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>31549.67062</v>
+        <v>31549.93299</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>261999.42757</v>
@@ -1996,14 +2032,19 @@
       <c r="M31" s="48" t="n">
         <v>5781.590429999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2189.089</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>932494.4279799999</v>
+        <v>932494.42798</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>823416.99931</v>
@@ -2012,34 +2053,39 @@
         <v>848781.13911</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>877245.8946400001</v>
+        <v>915007.17792</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>932623.80518</v>
+        <v>946463.12294</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1225914.86997</v>
+        <v>1227865.3456</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1462818.24391</v>
+        <v>1491881.56285</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1467407.3537</v>
+        <v>1467961.08821</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1874493.05201</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>6864279.12945</v>
+        <v>6864851.086259999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5453320.94488</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5457430.669690001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>7124976.842</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>248.63017</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>81.79548</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>50.733</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>9.845090000000001</v>
@@ -2113,14 +2164,19 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>72.023</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>63060.48515000001</v>
+        <v>63060.48515</v>
       </c>
       <c r="D35" s="48" t="n">
         <v>52375.92556</v>
@@ -2129,34 +2185,39 @@
         <v>76243.04223000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>85498.58357999999</v>
+        <v>85851.49314999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>88682.35158</v>
+        <v>88993.94768000001</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>101745.82331</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>101583.8791</v>
+        <v>109622.69639</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>120023.74483</v>
+        <v>120073.60698</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>187955.64444</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1334611.78639</v>
+        <v>1334612.02022</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>795188.50989</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>796380.17382</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>905539.023</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>627641.4890299999</v>
@@ -2165,40 +2226,45 @@
         <v>559431.5540499999</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>952185.30114</v>
+        <v>952185.3011400001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>506795.08556</v>
+        <v>519498.4754899999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>972284.06094</v>
+        <v>985339.2681699999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>891909.28848</v>
+        <v>895693.5867</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1288384.98336</v>
+        <v>1338343.57401</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1570026.79917</v>
+        <v>1570618.98307</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1839816.19385</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>6857559.723249999</v>
+        <v>6857579.59399</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>5641978.407080001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>5647687.2258</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>7231946.644</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>4361.84531</v>
+        <v>4361.845310000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>4580.33601</v>
@@ -2210,7 +2276,7 @@
         <v>5060.4894</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>8785.415779999999</v>
+        <v>8785.415780000001</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>7827.01124</v>
@@ -2219,22 +2285,27 @@
         <v>2921.19845</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4196.40487</v>
+        <v>4196.404869999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>4569.92198</v>
+        <v>4569.921979999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>9261.80465</v>
+        <v>9261.804649999998</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>9544.892109999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>8707.328</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>5221.88913</v>
@@ -2258,7 +2329,7 @@
         <v>11154.01151</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>12001.0815</v>
+        <v>12215.16933</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>18807.68856</v>
@@ -2267,13 +2338,18 @@
         <v>44093.46552</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>40122.05292999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>40122.05293</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>28342.456</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>1503.82399</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>736.28724</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>69526.913</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>565889.03579</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>501830.1689100001</v>
+        <v>501830.1689099999</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>886322.1537800001</v>
+        <v>886322.1537799999</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>400696.96519</v>
+        <v>413400.35512</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>873691.5121199999</v>
+        <v>886746.71935</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>822113.5286499999</v>
+        <v>825897.8268700001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1200973.42179</v>
+        <v>1250888.11278</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1471296.45554</v>
+        <v>1471654.91362</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1671354.40266</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6358430.864279999</v>
+        <v>6358448.30565</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>4852672.72685</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>4858381.53529</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6433893.04</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>46.37272</v>
@@ -2360,7 +2446,7 @@
         <v>17.78206</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>45.24318</v>
+        <v>45.24318000000001</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>353.1748</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1330.76744</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>158.958</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>116.42593</v>
@@ -2425,14 +2516,19 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>50502.09616</v>
+        <v>50502.09615999999</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>48109.76632</v>
@@ -2441,34 +2537,39 @@
         <v>52560.24157</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>89849.55224</v>
+        <v>89849.55223999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>83337.10131999999</v>
+        <v>83337.10132</v>
       </c>
       <c r="H43" s="48" t="n">
         <v>53321.01456</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>70114.42259999999</v>
+        <v>70158.32226</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>76258.83518000001</v>
+        <v>76278.47316999998</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>136446.96171</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>443378.69846</v>
+        <v>443381.1278300001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>737571.6805099999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>737571.6907899999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>691317.949</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>601176.48947</v>
@@ -2483,31 +2584,36 @@
         <v>573336.42273</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1463884.5829</v>
+        <v>1463885.60682</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1037134.25323</v>
+        <v>1037846.4112</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1817116.81243</v>
+        <v>1822869.08461</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1341703.63814</v>
+        <v>1341771.54021</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1668346.17922</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>3711024.18807</v>
+        <v>3711032.57107</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2322994.29578</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2332017.65022</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4244754.5</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>161341.70774</v>
@@ -2522,31 +2628,36 @@
         <v>176438.88044</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>308106.00194</v>
+        <v>308107.0258599999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>331157.6451</v>
+        <v>331869.80307</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>387172.9863199999</v>
+        <v>392672.54078</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>324829.83967</v>
+        <v>324897.74174</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>409789.08832</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>918553.1516900001</v>
+        <v>918555.6008599999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1027572.02865</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1032667.5147</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>1246474.925</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>439834.78173</v>
@@ -2567,7 +2678,7 @@
         <v>705976.6081299999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>1429943.82611</v>
+        <v>1430196.54383</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>1016873.79847</v>
@@ -2576,16 +2687,21 @@
         <v>1258557.0909</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2792471.03638</v>
+        <v>2792476.97021</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1295422.26713</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1299350.13552</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2998279.575</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>86744.29663999999</v>
@@ -2594,37 +2710,42 @@
         <v>244826.57546</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-519416.51795</v>
+        <v>-519416.5179500001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>945322.09095</v>
+        <v>949079.5426</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-926636.0713600002</v>
+        <v>-942194.3201299999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>584062.2382600001</v>
+        <v>584014.93883</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-233206.30987</v>
+        <v>-273038.27285</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-140032.95309</v>
+        <v>-131498.72832</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>587067.69988</v>
+        <v>587067.6998800001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>271407.1672</v>
+        <v>271013.0947200001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1359891.47995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1346259.82749</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>118251.799</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>279690.93201</v>
@@ -2636,34 +2757,39 @@
         <v>327731.98639</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>215984.56044</v>
+        <v>216062.26126</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>394755.4784000001</v>
+        <v>394913.96227</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>308316.84304</v>
+        <v>308344.60288</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>305631.49154</v>
+        <v>305942.9374400001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>377175.87655</v>
+        <v>377215.43868</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>383820.42656</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>712531.1975499999</v>
+        <v>712707.52934</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1259440.89483</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1273990.70452</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>877706.046</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2123.31769</v>
@@ -2672,22 +2798,22 @@
         <v>3787.79763</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>23324.21207</v>
+        <v>23324.21207000001</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>5021.41314</v>
+        <v>5026.88034</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>4747.92265</v>
+        <v>4857.316589999999</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>3109.92111</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>3163.23086</v>
+        <v>3212.88528</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>23802.36242</v>
+        <v>23802.36241999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>2095.20397</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>11159.68744</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>22724.922</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>277567.61432</v>
@@ -2714,34 +2845,39 @@
         <v>304407.77432</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>210963.1473</v>
+        <v>211035.38092</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>390007.55575</v>
+        <v>390056.64568</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>305206.92193</v>
+        <v>305234.68177</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>302468.26068</v>
+        <v>302730.05216</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>353373.51413</v>
+        <v>353413.0762600001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>381725.22259</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>702187.50994</v>
+        <v>702363.84173</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1248281.20739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1262831.01708</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>854981.124</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>127234.45523</v>
@@ -2753,34 +2889,39 @@
         <v>738923.1414399999</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>254294.69342</v>
+        <v>254403.52632</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>220816.303</v>
+        <v>223101.80152</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>476953.36256</v>
+        <v>477776.43084</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>283421.01314</v>
+        <v>285191.10257</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>599989.8739400001</v>
+        <v>600030.99211</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>320129.70117</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>429853.37641</v>
+        <v>430156.68122</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>349886.22538</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>351286.1976599999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>509247.498</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>3605.80126</v>
@@ -2804,7 +2945,7 @@
         <v>16441.61885</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3988.962559999999</v>
+        <v>3988.96256</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>2253.12667</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>1034.06161</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>2013.35</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>11683.11863</v>
@@ -2831,19 +2977,19 @@
         <v>32008.02633</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>10874.25411</v>
+        <v>10897.38688</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>11580.48048</v>
+        <v>11626.49333</v>
       </c>
       <c r="H53" s="48" t="n">
         <v>9653.199710000001</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>10571.5721</v>
+        <v>10589.55027</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>34168.42867</v>
+        <v>34169.99751000001</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>16812.08582</v>
@@ -2852,13 +2998,18 @@
         <v>14823.54067</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>23731.00613</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>23941.91757</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>114809.868</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>111945.53534</v>
@@ -2867,37 +3018,42 @@
         <v>285595.71036</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>702795.0822000001</v>
+        <v>702795.0821999999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>239125.04178</v>
+        <v>239210.74191</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>205167.83279</v>
+        <v>207407.31846</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>463054.78926</v>
+        <v>463877.85754</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>256407.82219</v>
+        <v>258159.93345</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>561832.48271</v>
+        <v>561872.03204</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>301064.48868</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>413817.00505</v>
+        <v>414120.30986</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>325121.15764</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>326310.21848</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>392424.28</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>239200.77342</v>
@@ -2906,37 +3062,42 @@
         <v>180537.46351</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-930607.673</v>
+        <v>-930607.6729999998</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>907011.95797</v>
+        <v>910738.27754</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-752696.89596</v>
+        <v>-770382.15938</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>415425.71874</v>
+        <v>414583.11087</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-210995.83147</v>
+        <v>-252286.43798</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-362846.9504799999</v>
+        <v>-354314.2817500001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>650758.4252699999</v>
+        <v>650758.4252700001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>554084.98834</v>
+        <v>553563.9428399999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>2269446.1494</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2268964.334350001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>486710.347</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>20090.27358</v>
@@ -2948,7 +3109,7 @@
         <v>30673.89649</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>39735.35391999999</v>
+        <v>39745.40853</v>
       </c>
       <c r="G56" s="47" t="n">
         <v>42751.5544</v>
@@ -2957,25 +3118,30 @@
         <v>34367.94807999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>39103.62002</v>
+        <v>40312.45708</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>51821.07546000001</v>
+        <v>51834.7846</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>62140.56404</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>157752.8743</v>
+        <v>157801.79142</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>134003.69883</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>134055.90295</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>185339.891</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>219110.49984</v>
@@ -2987,31 +3153,34 @@
         <v>-961281.56949</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>867276.6040500001</v>
+        <v>870992.86901</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-795448.45036</v>
+        <v>-813133.71378</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>381057.77066</v>
+        <v>380215.16279</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-250099.45149</v>
+        <v>-292598.8950600001</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-414668.02594</v>
+        <v>-406149.06635</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>588617.86123</v>
+        <v>588617.8612299999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>396332.11404</v>
+        <v>395762.15142</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>2135442.45057</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>2134908.4314</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>301370.456</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1985</v>
@@ -3041,31 +3213,34 @@
         <v>2041</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1853</v>
+        <v>1859</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1807</v>
+        <v>1830</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1788</v>
+        <v>1816</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>1866</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1841</v>
+        <v>1886</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1838</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1927</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>